--- a/tests/Headway_Geral_BM_x_PA_D2_0001.xlsx
+++ b/tests/Headway_Geral_BM_x_PA_D2_0001.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5455,6 +5455,1406 @@
         <v>64.3193</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>14920</v>
+      </c>
+      <c r="D126" t="n">
+        <v>383</v>
+      </c>
+      <c r="E126" t="n">
+        <v>497.8312</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Onibus</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>2.831200000000024</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>15368</v>
+      </c>
+      <c r="D127" t="n">
+        <v>404</v>
+      </c>
+      <c r="E127" t="n">
+        <v>512.7794</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Onibus</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>14.94819999999999</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>14991</v>
+      </c>
+      <c r="D128" t="n">
+        <v>377</v>
+      </c>
+      <c r="E128" t="n">
+        <v>500.2002</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Onibus</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>5.200199999999995</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B129" t="n">
+        <v>32</v>
+      </c>
+      <c r="C129" t="n">
+        <v>14887</v>
+      </c>
+      <c r="D129" t="n">
+        <v>384</v>
+      </c>
+      <c r="E129" t="n">
+        <v>496.7301</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>4</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1.730099999999993</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B130" t="n">
+        <v>31</v>
+      </c>
+      <c r="C130" t="n">
+        <v>14961</v>
+      </c>
+      <c r="D130" t="n">
+        <v>396</v>
+      </c>
+      <c r="E130" t="n">
+        <v>499.1992</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2.469100000000026</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+      <c r="C131" t="n">
+        <v>15012</v>
+      </c>
+      <c r="D131" t="n">
+        <v>400</v>
+      </c>
+      <c r="E131" t="n">
+        <v>500.9009</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>4</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1.70169999999996</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+      <c r="C132" t="n">
+        <v>15093</v>
+      </c>
+      <c r="D132" t="n">
+        <v>406</v>
+      </c>
+      <c r="E132" t="n">
+        <v>503.6036</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>4</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+      <c r="I132" t="n">
+        <v>4</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2.702699999999993</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>15289</v>
+      </c>
+      <c r="D133" t="n">
+        <v>407</v>
+      </c>
+      <c r="E133" t="n">
+        <v>510.1435</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+      <c r="I133" t="n">
+        <v>5</v>
+      </c>
+      <c r="J133" t="n">
+        <v>3</v>
+      </c>
+      <c r="K133" t="n">
+        <v>3</v>
+      </c>
+      <c r="L133" t="n">
+        <v>6.539900000000046</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15343</v>
+      </c>
+      <c r="D134" t="n">
+        <v>417</v>
+      </c>
+      <c r="E134" t="n">
+        <v>511.9453</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>4</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>6</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4</v>
+      </c>
+      <c r="K134" t="n">
+        <v>4</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1.801799999999957</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B135" t="n">
+        <v>30</v>
+      </c>
+      <c r="C135" t="n">
+        <v>15419</v>
+      </c>
+      <c r="D135" t="n">
+        <v>450</v>
+      </c>
+      <c r="E135" t="n">
+        <v>514.4811</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>4</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+      <c r="I135" t="n">
+        <v>7</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>2.535799999999995</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>15465</v>
+      </c>
+      <c r="D136" t="n">
+        <v>452</v>
+      </c>
+      <c r="E136" t="n">
+        <v>516.016</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>4</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+      <c r="I136" t="n">
+        <v>8</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>5</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1.534899999999993</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B137" t="n">
+        <v>8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>15532</v>
+      </c>
+      <c r="D137" t="n">
+        <v>458</v>
+      </c>
+      <c r="E137" t="n">
+        <v>518.2516000000001</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>4</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+      <c r="I137" t="n">
+        <v>9</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>6</v>
+      </c>
+      <c r="L137" t="n">
+        <v>2.23560000000009</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15635</v>
+      </c>
+      <c r="D138" t="n">
+        <v>467</v>
+      </c>
+      <c r="E138" t="n">
+        <v>521.6884</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>4</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+      <c r="I138" t="n">
+        <v>10</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>7</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3.436799999999948</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B139" t="n">
+        <v>10</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15709</v>
+      </c>
+      <c r="D139" t="n">
+        <v>470</v>
+      </c>
+      <c r="E139" t="n">
+        <v>524.1575</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>4</v>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+      <c r="I139" t="n">
+        <v>11</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K139" t="n">
+        <v>8</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2.469100000000026</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B140" t="n">
+        <v>34</v>
+      </c>
+      <c r="C140" t="n">
+        <v>14895</v>
+      </c>
+      <c r="D140" t="n">
+        <v>376</v>
+      </c>
+      <c r="E140" t="n">
+        <v>496.997</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>3</v>
+      </c>
+      <c r="H140" t="n">
+        <v>4</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1.997000000000014</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B141" t="n">
+        <v>33</v>
+      </c>
+      <c r="C141" t="n">
+        <v>14989</v>
+      </c>
+      <c r="D141" t="n">
+        <v>402</v>
+      </c>
+      <c r="E141" t="n">
+        <v>500.1335</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Moto</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>3</v>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>3.136500000000012</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B142" t="n">
+        <v>11</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15059</v>
+      </c>
+      <c r="D142" t="n">
+        <v>381</v>
+      </c>
+      <c r="E142" t="n">
+        <v>502.4691</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>3</v>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2.335599999999999</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15163</v>
+      </c>
+      <c r="D143" t="n">
+        <v>387</v>
+      </c>
+      <c r="E143" t="n">
+        <v>505.9393</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>3</v>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3.470199999999977</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B144" t="n">
+        <v>13</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15257</v>
+      </c>
+      <c r="D144" t="n">
+        <v>391</v>
+      </c>
+      <c r="E144" t="n">
+        <v>509.0757</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>3</v>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+      <c r="I144" t="n">
+        <v>5</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3</v>
+      </c>
+      <c r="K144" t="n">
+        <v>3</v>
+      </c>
+      <c r="L144" t="n">
+        <v>3.136399999999981</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B145" t="n">
+        <v>14</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15317</v>
+      </c>
+      <c r="D145" t="n">
+        <v>397</v>
+      </c>
+      <c r="E145" t="n">
+        <v>511.0777</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>3</v>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+      <c r="I145" t="n">
+        <v>6</v>
+      </c>
+      <c r="J145" t="n">
+        <v>4</v>
+      </c>
+      <c r="K145" t="n">
+        <v>4</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2.00200000000001</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15371</v>
+      </c>
+      <c r="D146" t="n">
+        <v>401</v>
+      </c>
+      <c r="E146" t="n">
+        <v>512.8795</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>3</v>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+      <c r="I146" t="n">
+        <v>7</v>
+      </c>
+      <c r="J146" t="n">
+        <v>5</v>
+      </c>
+      <c r="K146" t="n">
+        <v>5</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1.801800000000014</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B147" t="n">
+        <v>16</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15455</v>
+      </c>
+      <c r="D147" t="n">
+        <v>422</v>
+      </c>
+      <c r="E147" t="n">
+        <v>515.6823000000001</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>3</v>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+      <c r="I147" t="n">
+        <v>8</v>
+      </c>
+      <c r="J147" t="n">
+        <v>6</v>
+      </c>
+      <c r="K147" t="n">
+        <v>6</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2.802800000000047</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B148" t="n">
+        <v>17</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15500</v>
+      </c>
+      <c r="D148" t="n">
+        <v>449</v>
+      </c>
+      <c r="E148" t="n">
+        <v>517.1839</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>3</v>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+      <c r="I148" t="n">
+        <v>9</v>
+      </c>
+      <c r="J148" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>7</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1.501599999999939</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B149" t="n">
+        <v>18</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15576</v>
+      </c>
+      <c r="D149" t="n">
+        <v>454</v>
+      </c>
+      <c r="E149" t="n">
+        <v>519.7197</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>3</v>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+      <c r="I149" t="n">
+        <v>10</v>
+      </c>
+      <c r="J149" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>8</v>
+      </c>
+      <c r="L149" t="n">
+        <v>2.535799999999995</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B150" t="n">
+        <v>19</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15641</v>
+      </c>
+      <c r="D150" t="n">
+        <v>460</v>
+      </c>
+      <c r="E150" t="n">
+        <v>521.8886</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>3</v>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+      <c r="I150" t="n">
+        <v>11</v>
+      </c>
+      <c r="J150" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>9</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2.168900000000008</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B151" t="n">
+        <v>20</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15702</v>
+      </c>
+      <c r="D151" t="n">
+        <v>468</v>
+      </c>
+      <c r="E151" t="n">
+        <v>523.9239</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>3</v>
+      </c>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+      <c r="I151" t="n">
+        <v>12</v>
+      </c>
+      <c r="J151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>10</v>
+      </c>
+      <c r="L151" t="n">
+        <v>2.035300000000007</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B152" t="n">
+        <v>21</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15229</v>
+      </c>
+      <c r="D152" t="n">
+        <v>433</v>
+      </c>
+      <c r="E152" t="n">
+        <v>508.1415</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>4</v>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>13.14150000000001</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B153" t="n">
+        <v>22</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15802</v>
+      </c>
+      <c r="D153" t="n">
+        <v>447</v>
+      </c>
+      <c r="E153" t="n">
+        <v>527.2606</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>4</v>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>32.26059999999995</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B154" t="n">
+        <v>23</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15869</v>
+      </c>
+      <c r="D154" t="n">
+        <v>472</v>
+      </c>
+      <c r="E154" t="n">
+        <v>529.4962</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>3</v>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>34.49620000000004</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B155" t="n">
+        <v>24</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15998</v>
+      </c>
+      <c r="D155" t="n">
+        <v>476</v>
+      </c>
+      <c r="E155" t="n">
+        <v>533.8005000000001</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>3</v>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>38.80050000000006</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B156" t="n">
+        <v>25</v>
+      </c>
+      <c r="C156" t="n">
+        <v>16089</v>
+      </c>
+      <c r="D156" t="n">
+        <v>475</v>
+      </c>
+      <c r="E156" t="n">
+        <v>536.8368</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>4</v>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>41.83680000000004</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B157" t="n">
+        <v>26</v>
+      </c>
+      <c r="C157" t="n">
+        <v>16241</v>
+      </c>
+      <c r="D157" t="n">
+        <v>480</v>
+      </c>
+      <c r="E157" t="n">
+        <v>541.9086</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>3</v>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>46.90859999999998</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B158" t="n">
+        <v>27</v>
+      </c>
+      <c r="C158" t="n">
+        <v>16266</v>
+      </c>
+      <c r="D158" t="n">
+        <v>481</v>
+      </c>
+      <c r="E158" t="n">
+        <v>542.7427</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Onibus</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="n">
+        <v>11</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>47.74270000000001</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B159" t="n">
+        <v>28</v>
+      </c>
+      <c r="C159" t="n">
+        <v>16336</v>
+      </c>
+      <c r="D159" t="n">
+        <v>483</v>
+      </c>
+      <c r="E159" t="n">
+        <v>545.0784</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Onibus</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>11</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2.335699999999974</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>14850</v>
+      </c>
+      <c r="B160" t="n">
+        <v>29</v>
+      </c>
+      <c r="C160" t="n">
+        <v>16291</v>
+      </c>
+      <c r="D160" t="n">
+        <v>482</v>
+      </c>
+      <c r="E160" t="n">
+        <v>543.5769</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Carro</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>4</v>
+      </c>
+      <c r="H160" t="n">
+        <v>12</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>48.57690000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
